--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/35_Gümüşhane_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/35_Gümüşhane_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD5E9D37-DF59-487F-B649-E8DA178651B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA624362-33D8-405D-9D20-F578D91C877B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{F9CC7541-3BE1-4FC6-AD7B-97E95F84C020}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{FB7AEED9-190F-47F3-BC2E-82C002CD4DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -901,13 +901,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{09BFDFBF-6102-4902-BA6F-218EDDD8F80B}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{D86451C7-6337-41AD-B680-E1D66ADE46C2}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{E2AE83FC-CBE1-4642-95D4-C44309638E0D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{F71B9CBC-F6B1-4EF8-BACD-E25D33F6D41F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{2135AC27-77B1-4FDC-B8A9-6D4CC1524E37}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{F9AFC2AC-B288-49BA-8BF0-4A619672ACBA}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{DE40BD77-B769-4625-9350-5E7AE1F51E9C}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F23FD29B-2229-42A6-BC99-21C8C3B9B4B3}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{EE5C8813-DBB6-42F5-BAEC-875F2FDDC5B0}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{F61CC1C7-45ED-4B2E-BE32-3D44E9D359CF}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{6A5AAF6F-F6E0-4EEE-8814-6EB7D6F85762}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{3F5FCBA5-6786-4271-97A5-8E8CE401EAE2}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{4FFBEEF4-883E-4584-A169-77238C01F3CB}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{9D90D46C-2DD1-43DC-BF58-74963E68E27C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1277,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F2D8EB-43E1-42E3-8B2B-271B4C9F00DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD40CFD5-C415-4940-9301-4D86A23EF444}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2528,7 +2528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0329E3A-3211-409E-ABC1-B4BA72DD85B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07A92FE-F904-4ED7-99B7-C8E8D1ED4C70}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3778,7 +3778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EA2084-2539-4095-8F77-DB183EFDED53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA24F2AF-CCD9-41BD-A304-7D76F4A59E77}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5028,7 +5028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AD8735-B7A2-479F-B9BD-AD7D8CDC2748}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{902D8E99-67BF-4274-8098-167F990C7C9B}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6258,7 +6258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C109ED9-0FAB-405A-BC46-312C510CF8A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E996A35-FA1A-4B99-A457-97F5C4621E04}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7507,7 +7507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F23A316-7E57-4BFD-B533-7DCF694FF6ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F0E3B7-62E8-40A2-A654-DBE517686DB8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8758,7 +8758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1F5F09-4CE8-48BF-819A-B60B0B183C41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E58DBF-CE95-4023-8F6C-8313BAFF7CD5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10009,7 +10009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741085ED-26D8-47B0-82AE-5D9D88E2D6CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A68BABE-113B-494A-AC66-2986EDF99238}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11254,7 +11254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F61312-29BF-4FAF-AB3D-1949D0B22812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E084A97E-97FC-4B49-B45D-CECF5BE5E0D1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12505,7 +12505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5A5D2B-6441-4C42-8968-0F3F0225E2D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753D5D86-6348-4234-9746-5D97F389A0B0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13748,7 +13748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7276E9-6240-425E-B2E4-60F8E8F2784F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82E5F90-E2A7-4041-8AC9-0F572DCC7641}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14997,7 +14997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D84248-E6B8-4E10-A930-58C1E49B7D07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF843325-68DE-4B96-A274-BD106912AD78}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
